--- a/ConfigData/Xlsx/Tile.xlsx
+++ b/ConfigData/Xlsx/Tile.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="Tile" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>water</t>
   </si>
@@ -138,13 +143,69 @@
   </si>
   <si>
     <t>Color</t>
+  </si>
+  <si>
+    <t>9|DefaultTile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanMove</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以移动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬崖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,28 +824,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -799,30 +863,44 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Cname"/>
     <tableColumn id="4" name="Type"/>
+    <tableColumn id="6" name="CanMove"/>
+    <tableColumn id="7" name="Icon" dataDxfId="0"/>
     <tableColumn id="5" name="Color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -872,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -904,9 +982,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,6 +1017,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1113,16 +1193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1136,10 +1216,16 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1153,10 +1239,16 @@
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1170,10 +1262,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1186,11 +1284,17 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1203,11 +1307,17 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1220,11 +1330,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1237,11 +1353,17 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1254,11 +1376,17 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1271,11 +1399,17 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1288,11 +1422,17 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1305,13 +1445,19 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>9</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1322,15 +1468,45 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/Tile.xlsx
+++ b/ConfigData/Xlsx/Tile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Tile" sheetId="1" r:id="rId1"/>
@@ -1197,12 +1197,12 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1363,15 +1363,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1380,21 +1380,21 @@
         <v>43</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1403,59 +1403,59 @@
         <v>43</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>

--- a/ConfigData/Xlsx/Tile.xlsx
+++ b/ConfigData/Xlsx/Tile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>water</t>
   </si>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>fall</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowBorder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示边框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -892,9 +908,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Cname"/>
@@ -902,6 +918,7 @@
     <tableColumn id="6" name="CanMove"/>
     <tableColumn id="7" name="Icon" dataDxfId="0"/>
     <tableColumn id="5" name="Color"/>
+    <tableColumn id="8" name="ShowBorder"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1194,15 +1211,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H4" sqref="H4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="G1" t="s">
         <v>38</v>
       </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1247,8 +1267,11 @@
       <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1270,8 +1293,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1293,8 +1319,11 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1316,8 +1345,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1339,8 +1371,11 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1362,8 +1397,11 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1385,8 +1423,11 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1408,8 +1449,11 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1431,8 +1475,11 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1454,8 +1501,11 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1477,8 +1527,11 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>

--- a/ConfigData/Xlsx/Tile.xlsx
+++ b/ConfigData/Xlsx/Tile.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Tile" sheetId="1" r:id="rId1"/>
+    <sheet name="Tilw" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>water</t>
   </si>
@@ -100,117 +100,87 @@
   </si>
   <si>
     <t>LimeGreen</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cname</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>CanMove</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ShowBorder</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>序列</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否可以移动</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>显示边框</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>悬崖</t>
+  </si>
+  <si>
+    <t>别名</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
+    <t>Alias</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中文名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Cname</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>9|DefaultTile</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanMove</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以移动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬崖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fall</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowBorder</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示边框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>DefaultTile</t>
   </si>
   <si>
     <t>true</t>
@@ -220,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,15 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,7 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,10 +797,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -890,12 +851,83 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -908,31 +940,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H13" totalsRowShown="0">
-  <autoFilter ref="A1:H13"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I13" totalsRowShown="0">
+  <autoFilter ref="A3:I13"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Id"/>
+    <tableColumn id="9" name="Alias"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Cname"/>
     <tableColumn id="4" name="Type"/>
-    <tableColumn id="6" name="CanMove"/>
-    <tableColumn id="7" name="Icon" dataDxfId="0"/>
-    <tableColumn id="5" name="Color"/>
-    <tableColumn id="8" name="ShowBorder"/>
+    <tableColumn id="5" name="CanMove" dataDxfId="1"/>
+    <tableColumn id="6" name="Icon"/>
+    <tableColumn id="7" name="Color"/>
+    <tableColumn id="8" name="ShowBorder" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1000,6 +1033,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1035,6 +1085,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1211,355 +1278,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
+      <c r="I4" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
+      <c r="I5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>56</v>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>56</v>
+      <c r="I8" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>39</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>56</v>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>